--- a/resources/experiment 1/metrics/R2/upto time/Macroalbuminuria (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Macroalbuminuria (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9894206636212517</v>
+        <v>0.990422046723012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.989494500474126</v>
+        <v>0.9900990409403017</v>
       </c>
       <c r="D3" t="n">
-        <v>0.989494500474126</v>
+        <v>0.990582694946029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9897624415481333</v>
+        <v>0.9908441262156964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9897639754403827</v>
+        <v>0.990847269271228</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9897639754403827</v>
+        <v>0.9912478174339981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9410935188917692</v>
+        <v>0.874680470187448</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9413650678882222</v>
+        <v>0.8543316757481996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9413650678882222</v>
+        <v>0.8536062902627185</v>
       </c>
     </row>
   </sheetData>
